--- a/data/trans_orig/P70B_R2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17210</v>
+        <v>17402</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04678593594292253</v>
+        <v>0.04678593594292254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02257756763613425</v>
+        <v>0.02257535904905494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08602790219326149</v>
+        <v>0.08698667588778927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>7194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4036</v>
+        <v>3894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13283</v>
+        <v>13054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04755269451502804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02667651865221653</v>
+        <v>0.02573895754978455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08780391593058887</v>
+        <v>0.0862932145840372</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>16553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10047</v>
+        <v>9727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26256</v>
+        <v>24900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04711609308595275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0285959030608897</v>
+        <v>0.02768517725531408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07473199785469642</v>
+        <v>0.07087402682125851</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>190692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182842</v>
+        <v>182650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195535</v>
+        <v>195536</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9532140640570773</v>
+        <v>0.9532140640570774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9139720978067386</v>
+        <v>0.9130133241122107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9774224323638657</v>
+        <v>0.9774246409509452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -833,19 +833,19 @@
         <v>144085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137996</v>
+        <v>138225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147243</v>
+        <v>147385</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9524473054849721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9121960840694116</v>
+        <v>0.9137067854159618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9733234813477837</v>
+        <v>0.9742610424502152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>433</v>
@@ -854,19 +854,19 @@
         <v>334778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325075</v>
+        <v>326431</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341284</v>
+        <v>341604</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9528839069140473</v>
+        <v>0.9528839069140472</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9252680021453036</v>
+        <v>0.9291259731787413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9714040969391105</v>
+        <v>0.9723148227446855</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>57485</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41835</v>
+        <v>39986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77708</v>
+        <v>75414</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2339846324563394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1702836576950058</v>
+        <v>0.1627560245356576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3162963429519677</v>
+        <v>0.306958331983655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -979,19 +979,19 @@
         <v>40754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30459</v>
+        <v>32053</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52089</v>
+        <v>52136</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2364131212699811</v>
+        <v>0.2364131212699812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1766928230354477</v>
+        <v>0.1859346228219655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3021633678903075</v>
+        <v>0.3024347645071148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -1000,19 +1000,19 @@
         <v>98240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79569</v>
+        <v>81282</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121470</v>
+        <v>119878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2349860000401781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1903259591049674</v>
+        <v>0.1944232154413868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2905519015608677</v>
+        <v>0.286743014405918</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>188195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>167972</v>
+        <v>170266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203845</v>
+        <v>205694</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7660153675436606</v>
+        <v>0.7660153675436607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6837036570480323</v>
+        <v>0.6930416680163448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.829716342304994</v>
+        <v>0.8372439754643423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>160</v>
@@ -1050,19 +1050,19 @@
         <v>131632</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120297</v>
+        <v>120250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141927</v>
+        <v>140333</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.763586878730019</v>
+        <v>0.7635868787300188</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6978366321096926</v>
+        <v>0.6975652354928853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8233071769645526</v>
+        <v>0.8140653771780346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>291</v>
@@ -1071,19 +1071,19 @@
         <v>319826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>296596</v>
+        <v>298188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>338497</v>
+        <v>336784</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7650139999598219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7094480984391324</v>
+        <v>0.7132569855940825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8096740408950327</v>
+        <v>0.8055767845586135</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>43043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32580</v>
+        <v>32460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54181</v>
+        <v>55442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2902379272441281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2196842278317494</v>
+        <v>0.2188809828666538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3653418924000001</v>
+        <v>0.3738426273101783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1196,19 +1196,19 @@
         <v>30881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23080</v>
+        <v>23311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39162</v>
+        <v>39150</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2567060763137257</v>
+        <v>0.2567060763137258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.191853607581163</v>
+        <v>0.1937748743548894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3255368972162216</v>
+        <v>0.325441000355793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -1217,19 +1217,19 @@
         <v>73924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61472</v>
+        <v>60754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87958</v>
+        <v>87754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2752199259108419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2288592378864417</v>
+        <v>0.2261853743561152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3274687678309498</v>
+        <v>0.3267071456356946</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>105259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94121</v>
+        <v>92860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115722</v>
+        <v>115842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7097620727558719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6346581075999995</v>
+        <v>0.6261573726898217</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7803157721682504</v>
+        <v>0.7811190171333464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -1267,19 +1267,19 @@
         <v>89418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81137</v>
+        <v>81149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97219</v>
+        <v>96988</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7432939236862741</v>
+        <v>0.7432939236862742</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6744631027837783</v>
+        <v>0.6745589996442074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.808146392418837</v>
+        <v>0.8062251256451107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -1288,19 +1288,19 @@
         <v>194677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180643</v>
+        <v>180847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>207129</v>
+        <v>207847</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.724780074089158</v>
+        <v>0.7247800740891581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6725312321690503</v>
+        <v>0.6732928543643055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7711407621135583</v>
+        <v>0.7738146256438845</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>40423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25525</v>
+        <v>25151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58910</v>
+        <v>59188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1931964504023417</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1219934796282908</v>
+        <v>0.120203904986924</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2815550612826612</v>
+        <v>0.2828803750195054</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1413,19 +1413,19 @@
         <v>33907</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24809</v>
+        <v>24629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43958</v>
+        <v>44328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1920532686493883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1405209471428497</v>
+        <v>0.1395038708592795</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2489843874553956</v>
+        <v>0.2510830063616986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1434,19 +1434,19 @@
         <v>74330</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56894</v>
+        <v>55337</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97151</v>
+        <v>97037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1926732839121197</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1474779546996617</v>
+        <v>0.1434419853980025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.251829429287371</v>
+        <v>0.251533793417136</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>168809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150322</v>
+        <v>150044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183707</v>
+        <v>184081</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8068035495976583</v>
+        <v>0.8068035495976582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7184449387173391</v>
+        <v>0.7171196249804945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8780065203717095</v>
+        <v>0.8797960950130759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -1484,19 +1484,19 @@
         <v>142642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132591</v>
+        <v>132221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151740</v>
+        <v>151920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8079467313506117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7510156125446044</v>
+        <v>0.7489169936383013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8594790528571502</v>
+        <v>0.8604961291407203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>259</v>
@@ -1505,19 +1505,19 @@
         <v>311452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>288631</v>
+        <v>288745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>328888</v>
+        <v>330445</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8073267160878802</v>
+        <v>0.8073267160878803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.748170570712629</v>
+        <v>0.748466206582864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8525220453003383</v>
+        <v>0.8565580146019975</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>5946</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2849</v>
+        <v>2836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11759</v>
+        <v>11438</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0444557485086936</v>
+        <v>0.04445574850869362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02129838406639886</v>
+        <v>0.02120466936403058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08791848539164344</v>
+        <v>0.08552356863651808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>3889</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1736</v>
+        <v>1696</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9356</v>
+        <v>8386</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03301988303843011</v>
+        <v>0.0330198830384301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01473503864126753</v>
+        <v>0.01439777364299558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07943072785563111</v>
+        <v>0.07119652118114576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1651,19 +1651,19 @@
         <v>9835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5492</v>
+        <v>5759</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15603</v>
+        <v>16226</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03910071614499121</v>
+        <v>0.0391007161449912</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02183514991674206</v>
+        <v>0.02289550995492552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06203233750852721</v>
+        <v>0.06450973147816047</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>127800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121987</v>
+        <v>122308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130897</v>
+        <v>130910</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9555442514913064</v>
+        <v>0.9555442514913065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9120815146083566</v>
+        <v>0.9144764313634817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9787016159336013</v>
+        <v>0.9787953306359692</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>228</v>
@@ -1701,19 +1701,19 @@
         <v>113893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108426</v>
+        <v>109396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116046</v>
+        <v>116086</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9669801169615699</v>
+        <v>0.9669801169615698</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9205692721443678</v>
+        <v>0.9288034788188539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9852649613587324</v>
+        <v>0.9856022263570043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1722,19 +1722,19 @@
         <v>241693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>235925</v>
+        <v>235302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246036</v>
+        <v>245769</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9608992838550087</v>
+        <v>0.9608992838550088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9379676624914726</v>
+        <v>0.9354902685218395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9781648500832578</v>
+        <v>0.9771044900450745</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>39245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29741</v>
+        <v>29356</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50254</v>
+        <v>49446</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2917049785661364</v>
+        <v>0.2917049785661365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2210648798706999</v>
+        <v>0.2181997838803858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3735337553496049</v>
+        <v>0.36752684741088</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1847,19 +1847,19 @@
         <v>21310</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14709</v>
+        <v>14554</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28232</v>
+        <v>28682</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.246533324746507</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.170164770909361</v>
+        <v>0.168377329323435</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3266182261950036</v>
+        <v>0.3318249101284174</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1868,19 +1868,19 @@
         <v>60554</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49933</v>
+        <v>47979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74348</v>
+        <v>72674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2740353381281636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2259675348996772</v>
+        <v>0.2171267265936503</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3364576715744496</v>
+        <v>0.3288827437632392</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>95291</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84282</v>
+        <v>85090</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104795</v>
+        <v>105180</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7082950214338635</v>
+        <v>0.7082950214338636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6264662446503952</v>
+        <v>0.63247315258912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7789351201293002</v>
+        <v>0.7818002161196141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -1918,19 +1918,19 @@
         <v>65127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58205</v>
+        <v>57755</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71728</v>
+        <v>71883</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7534666752534925</v>
+        <v>0.7534666752534928</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6733817738049962</v>
+        <v>0.668175089871582</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8298352290906389</v>
+        <v>0.8316226706765648</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>204</v>
@@ -1939,19 +1939,19 @@
         <v>160419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146625</v>
+        <v>148299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>171040</v>
+        <v>172994</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7259646618718365</v>
+        <v>0.7259646618718364</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6635423284255504</v>
+        <v>0.6711172562367608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7740324651003229</v>
+        <v>0.7828732734063496</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>54098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39062</v>
+        <v>40094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71377</v>
+        <v>71244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.141008605982592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1018164114715468</v>
+        <v>0.1045073332239537</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1860483551288108</v>
+        <v>0.1857031501006075</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2064,19 +2064,19 @@
         <v>42298</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33388</v>
+        <v>31745</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54053</v>
+        <v>53826</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1185108075827828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09354742821123919</v>
+        <v>0.08894416135289369</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1514463207374953</v>
+        <v>0.1508111812909484</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -2085,19 +2085,19 @@
         <v>96395</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78536</v>
+        <v>78977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115319</v>
+        <v>115263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1301657855425289</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.106050263320608</v>
+        <v>0.1066446115719161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1557186138718761</v>
+        <v>0.1556425717587753</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>329549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>312270</v>
+        <v>312403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>344585</v>
+        <v>343553</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8589913940174081</v>
+        <v>0.858991394017408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.813951644871189</v>
+        <v>0.8142968498993925</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8981835885284528</v>
+        <v>0.8954926667760463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>384</v>
@@ -2135,19 +2135,19 @@
         <v>314615</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>302860</v>
+        <v>303087</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>323525</v>
+        <v>325168</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8814891924172171</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8485536792625049</v>
+        <v>0.8491888187090517</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9064525717887606</v>
+        <v>0.9110558386471065</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>649</v>
@@ -2156,19 +2156,19 @@
         <v>644164</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>625240</v>
+        <v>625296</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>662023</v>
+        <v>661582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.869834214457471</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8442813861281238</v>
+        <v>0.8443574282412247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.893949736679392</v>
+        <v>0.8933553884280838</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>29893</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19894</v>
+        <v>20494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43122</v>
+        <v>43526</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06622412414726071</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04407311040704294</v>
+        <v>0.04540235301532641</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09553242197215407</v>
+        <v>0.09642547431456731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2281,19 +2281,19 @@
         <v>37343</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28413</v>
+        <v>28063</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48479</v>
+        <v>48221</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1197220669320781</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0910920513865813</v>
+        <v>0.08996871529220007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1554214597975959</v>
+        <v>0.1545957292253319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2302,19 +2302,19 @@
         <v>67236</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52312</v>
+        <v>53271</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83661</v>
+        <v>83904</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08808545352083717</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06853358918095689</v>
+        <v>0.0697899029840709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1096025798168837</v>
+        <v>0.1099212245707061</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>421498</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>408269</v>
+        <v>407865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>431497</v>
+        <v>430897</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9337758758527392</v>
+        <v>0.9337758758527394</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9044675780278455</v>
+        <v>0.9035745256854324</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.955926889592957</v>
+        <v>0.9545976469846735</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -2352,19 +2352,19 @@
         <v>274574</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>263438</v>
+        <v>263696</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>283504</v>
+        <v>283854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8802779330679219</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8445785402024041</v>
+        <v>0.8454042707746683</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9089079486134188</v>
+        <v>0.9100312847077999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>682</v>
@@ -2373,19 +2373,19 @@
         <v>696072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>679647</v>
+        <v>679404</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>710996</v>
+        <v>710037</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9119145464791628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8903974201831164</v>
+        <v>0.8900787754292939</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9314664108190431</v>
+        <v>0.9302100970159289</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>279492</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>279</v>
@@ -2498,19 +2498,19 @@
         <v>217577</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1456762339920042</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>510</v>
@@ -2519,19 +2519,19 @@
         <v>497068</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1461901730513263</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>1627093</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1719</v>
@@ -2569,19 +2569,19 @@
         <v>1275986</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3133</v>
@@ -2590,19 +2590,19 @@
         <v>2903080</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="30">
